--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1767856.72039155</v>
+        <v>1765969.138875147</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>156.4463598280099</v>
+        <v>395.3790767497776</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>116.1430940756183</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>127.7140457494438</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>13.15972490571525</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>171.7498680634315</v>
+        <v>107.852413546446</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8.860579711131349</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>323.2180416857423</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>28.51033041214341</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.44734925172066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5269768002172</v>
       </c>
       <c r="D13" t="n">
-        <v>129.7991263300499</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.841492062620527</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>110.198964680514</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>146.9892058364129</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>153.3587278762631</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>12.36904315717072</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.93484241594749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>24.32276211751099</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2533,10 +2533,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532063</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>85.43728102995856</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.043564470071</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896555</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437439</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523594</v>
+        <v>3.256222267511845</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>95.30969774360598</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3202,7 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789621</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>933.9764825870271</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.1723320447962</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447094</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066827</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999322</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>81.15903730168793</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511216</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>554.6442689908469</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2688.199010501929</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2512.021522816099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2512.021522816099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2258.25973745419</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1927.196850110619</v>
+        <v>2370.666220628583</v>
       </c>
       <c r="W8" t="n">
-        <v>1574.428194840505</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="X8" t="n">
-        <v>1574.428194840505</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.7458231623355</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.3942879925752</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899338</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.1765965867979</v>
+        <v>213.9110074201012</v>
       </c>
       <c r="C13" t="n">
-        <v>376.240413658891</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5197,52 +5197,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W13" t="n">
-        <v>954.814612315055</v>
+        <v>441.9005583181186</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170377</v>
+        <v>213.9110074201012</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.8250614170377</v>
+        <v>213.9110074201012</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,28 +5261,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>692.753134944335</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="C16" t="n">
-        <v>523.8169520164281</v>
+        <v>565.0858502436178</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>985.7136853104475</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>874.4015997745747</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.4015997745747</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,7 +5549,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5592,7 +5592,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
@@ -5601,13 +5601,13 @@
         <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
         <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>730.7156349400713</v>
+        <v>713.5778697504957</v>
       </c>
       <c r="C19" t="n">
-        <v>561.7794520121644</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1344.008464622283</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>1344.008464622283</v>
       </c>
       <c r="W19" t="n">
-        <v>1133.156678913841</v>
+        <v>1344.008464622283</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.156678913841</v>
+        <v>1116.018913724266</v>
       </c>
       <c r="Y19" t="n">
-        <v>912.364099770311</v>
+        <v>895.2263345807354</v>
       </c>
     </row>
     <row r="20">
@@ -5735,22 +5735,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.9563154684962</v>
+        <v>692.753134944335</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1175.427174048239</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488382</v>
+        <v>1175.427174048239</v>
       </c>
       <c r="V22" t="n">
-        <v>898.7925182488382</v>
+        <v>920.7426858423523</v>
       </c>
       <c r="W22" t="n">
-        <v>609.3753482118775</v>
+        <v>920.7426858423523</v>
       </c>
       <c r="X22" t="n">
-        <v>609.3753482118775</v>
+        <v>692.753134944335</v>
       </c>
       <c r="Y22" t="n">
-        <v>560.9563154684962</v>
+        <v>692.753134944335</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1474.347823974558</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1274.42781389011</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1050.642398679616</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765196</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706327</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6251,10 +6251,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6309,22 +6309,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201023</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201023</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201023</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028587</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>986.002216560967</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550801</v>
+        <v>958.011488398923</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181195</v>
+        <v>668.5943183619625</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201023</v>
+        <v>668.5943183619625</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201023</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,28 +6446,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>508.2917218531359</v>
+        <v>491.5575547094954</v>
       </c>
       <c r="C31" t="n">
-        <v>395.1164042065996</v>
+        <v>378.3822370629593</v>
       </c>
       <c r="D31" t="n">
-        <v>300.7606300756344</v>
+        <v>284.0264629319943</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756344</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590946</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933497</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1932.836949654547</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096191</v>
+        <v>1788.67780485147</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1620.653254922347</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661997</v>
+        <v>1387.285481417276</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.33673373748</v>
+        <v>1188.36185849276</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818901</v>
+        <v>954.7055537371702</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652434</v>
+        <v>782.4768681205237</v>
       </c>
       <c r="Y31" t="n">
-        <v>634.179321402005</v>
+        <v>617.4451542583644</v>
       </c>
     </row>
     <row r="32">
@@ -6789,16 +6789,16 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222968</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506733</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103137</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7020,22 +7020,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,22 +7160,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7257,22 +7257,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,46 +7394,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,37 +7582,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>15.83804904622878</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>127.6461250100651</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>199.7396287231153</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,25 +10668,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>19.14409596997069</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,10 +11142,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>51.71984429841062</v>
       </c>
       <c r="D13" t="n">
-        <v>18.81634668816241</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23467,10 +23467,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>143.7739809555918</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5106907085231</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.626267181799444</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,16 +23944,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>132.8786245223142</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>209.1785179012185</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.6498109361473</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>85.6415902862818</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338466</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>30.90698584635086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>200.8000713686188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801231</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897927</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571513</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>51.50487350772388</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.07169897993197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936736.6229231526</v>
+        <v>936736.6229231529</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>945058.8049936141</v>
+        <v>945058.804993614</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="F2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="G2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="K2" t="n">
         <v>508527.6716815878</v>
@@ -26344,16 +26344,16 @@
         <v>513151.1061651764</v>
       </c>
       <c r="M2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="N2" t="n">
         <v>513151.1061651765</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.1061651764</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651764</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284543</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086705</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284545</v>
+        <v>44162.60530284563</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106717</v>
+        <v>40339.23010106726</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.39482819122</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="O4" t="n">
-        <v>44593.39482819117</v>
-      </c>
       <c r="P4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993015</v>
+        <v>-325308.7188993014</v>
       </c>
       <c r="C6" t="n">
-        <v>264659.1603152433</v>
+        <v>264659.1603152435</v>
       </c>
       <c r="D6" t="n">
-        <v>264659.1603152434</v>
+        <v>264659.1603152432</v>
       </c>
       <c r="E6" t="n">
-        <v>-150535.6453403475</v>
+        <v>-150633.1044663198</v>
       </c>
       <c r="F6" t="n">
-        <v>374624.3911365486</v>
+        <v>374526.9320105763</v>
       </c>
       <c r="G6" t="n">
-        <v>374624.3911365485</v>
+        <v>374526.9320105763</v>
       </c>
       <c r="H6" t="n">
-        <v>374624.3911365485</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="I6" t="n">
-        <v>374624.3911365485</v>
+        <v>374526.9320105763</v>
       </c>
       <c r="J6" t="n">
-        <v>198201.1719439556</v>
+        <v>198103.7128179833</v>
       </c>
       <c r="K6" t="n">
-        <v>327397.6277474525</v>
+        <v>327379.1340095178</v>
       </c>
       <c r="L6" t="n">
-        <v>360499.6987160927</v>
+        <v>360499.698716093</v>
       </c>
       <c r="M6" t="n">
-        <v>236041.5902831228</v>
+        <v>236041.5902831229</v>
       </c>
       <c r="N6" t="n">
         <v>370842.6055169599</v>
       </c>
       <c r="O6" t="n">
-        <v>370842.60551696</v>
+        <v>370842.6055169599</v>
       </c>
       <c r="P6" t="n">
-        <v>326680.0002141146</v>
+        <v>326680.0002141142</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108382</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855681</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>257.3378101927851</v>
+        <v>18.40509327101739</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>51.10372702300955</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>226.9689958712391</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>393.7163208359962</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>53.95978732560567</v>
+        <v>117.8572418425911</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>45.61782286368035</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>4.534216784392584</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0.6124195427708976</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.1373041003741</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>265.095754002253</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>482.1033309642235</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412238</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584674</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004316</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>268.401800925995</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520613</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
